--- a/progetto finale 3 Mario.xlsx
+++ b/progetto finale 3 Mario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC279BA-735A-4E48-8B04-2F324389F79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64454761-EEF8-4A57-8E5E-4370561D052A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,7 +631,7 @@
   <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
